--- a/Python/Result/ARIMA_rmse.xlsx
+++ b/Python/Result/ARIMA_rmse.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8138FE3C-5FE5-D847-B994-49F8965AF568}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,15 +73,38 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="176" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -105,17 +129,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -392,24 +422,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="163" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -441,8 +471,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B2">
@@ -451,132 +481,132 @@
       <c r="C2">
         <v>1.84847659879337E-2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>1.8585061226201498E-2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>1.7913193328056E-2</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>1.77965481420196E-2</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>1.7452545703721799E-2</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>1.7484720269679E-2</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>1.7350999999999998E-2</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>1.7451000000000001E-2</v>
       </c>
       <c r="K2" s="2">
         <v>1.8687587841973601E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:11">
+      <c r="A3" s="4"/>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3">
         <v>3.8929510931406598E-2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>3.9459365088531401E-2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>4.2554751889230802E-2</v>
       </c>
       <c r="F3" s="2">
         <v>4.4725281560830603E-2</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>4.0810143784649103E-2</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>3.9729701293520603E-2</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>4.0536000000000003E-2</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>4.0282999999999999E-2</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>4.0132733038123203E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:11">
+      <c r="A4" s="4"/>
       <c r="B4">
         <v>6</v>
       </c>
       <c r="C4">
         <v>5.2929715994414102E-2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>5.4555759543406503E-2</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>6.1786193838242798E-2</v>
       </c>
       <c r="F4" s="2">
         <v>6.6698606170748798E-2</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>5.4418872017831299E-2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>5.4432616571927897E-2</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>5.3834E-2</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>5.4148000000000002E-2</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="3">
         <v>5.1780755786365103E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:11">
+      <c r="A5" s="4"/>
       <c r="B5">
         <v>12</v>
       </c>
       <c r="C5">
         <v>8.1540378555287896E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>8.7838919578943297E-2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>9.7558030382750294E-2</v>
       </c>
       <c r="F5" s="2">
         <v>0.106714858068214</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>8.73760838200279E-2</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>8.7489164286983306E-2</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>8.5976999999999998E-2</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>8.6886000000000005E-2</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>9.66515645568575E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B6">
@@ -585,33 +615,33 @@
       <c r="C6">
         <v>7.6060840277869602E-3</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>8.7680143352422205E-3</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>7.1336506832170698E-3</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>7.11782621971036E-3</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>8.2839812336032801E-3</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>8.3267977549873595E-3</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>8.2819999999999994E-3</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>8.2920000000000008E-3</v>
       </c>
       <c r="K6" s="2">
         <v>9.8776109785703291E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:11">
+      <c r="A7" s="4"/>
       <c r="B7">
         <v>3</v>
       </c>
@@ -621,30 +651,30 @@
       <c r="D7" s="2">
         <v>2.25183515049261E-2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>1.7257196686782501E-2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>1.7224849447926301E-2</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>2.2023553707284899E-2</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>2.2118412211908901E-2</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>2.1892000000000002E-2</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>2.1992000000000001E-2</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>2.2388969526441999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:11">
+      <c r="A8" s="4"/>
       <c r="B8">
         <v>6</v>
       </c>
@@ -654,30 +684,30 @@
       <c r="D8" s="2">
         <v>3.9860583278586E-2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>2.7465971696895401E-2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>2.7379836754932201E-2</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>3.9353281851551902E-2</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>3.94705580419187E-2</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>3.9183999999999997E-2</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>3.9300000000000002E-2</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>3.4990055972183499E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:11">
+      <c r="A9" s="4"/>
       <c r="B9">
         <v>12</v>
       </c>
@@ -687,30 +717,30 @@
       <c r="D9" s="2">
         <v>7.1522640461320994E-2</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>4.1231054431073298E-2</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>4.1037013424764603E-2</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>7.0519475127944195E-2</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>7.0649195075474805E-2</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>7.0142999999999997E-2</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>7.0358000000000004E-2</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <v>4.8567968403185502E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:11">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B10">
@@ -722,129 +752,129 @@
       <c r="D10" s="2">
         <v>2.1373669020952599E-2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>2.0067289670946901E-2</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>2.0974190000545598E-2</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>2.0786501246190501E-2</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>2.01115061988652E-2</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>2.0178999999999999E-2</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>2.0275000000000001E-2</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>2.1345443022957399E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:11">
+      <c r="A11" s="4"/>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11">
         <v>4.2205342153022601E-2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>4.3806027315659503E-2</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>4.3698113085031902E-2</v>
       </c>
       <c r="F11" s="2">
         <v>4.6264067153609603E-2</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>4.4231890775902401E-2</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>4.3659660960786301E-2</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>4.3734000000000002E-2</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>4.3805999999999998E-2</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="3">
         <v>4.1430417531551897E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:11">
+      <c r="A12" s="4"/>
       <c r="B12">
         <v>6</v>
       </c>
       <c r="C12">
         <v>6.2737428493619296E-2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>6.7512332867360705E-2</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>6.3129382163377601E-2</v>
       </c>
       <c r="F12" s="2">
         <v>6.8491285308844602E-2</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>6.6348667638640405E-2</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>6.5876256717126394E-2</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>6.6200999999999996E-2</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>6.6084000000000004E-2</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <v>6.59498815471488E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:11">
+      <c r="A13" s="4"/>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13">
         <v>9.6898808521628799E-2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>0.111920379545139</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>8.7162753661230594E-2</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>9.1768634143254799E-2</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>0.10693250002983901</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>0.106712335990735</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>0.107126</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>0.106882</v>
       </c>
       <c r="K13" s="2">
         <v>0.11869252946454301</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:11">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -853,132 +883,132 @@
       <c r="C14">
         <v>2.1630311969723801E-2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>2.19184340620662E-2</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>2.1244985509276899E-2</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>2.1344451335594899E-2</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>2.14684605934953E-2</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>2.1538260421376899E-2</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>2.1496999999999999E-2</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>2.1444000000000001E-2</v>
       </c>
       <c r="K14" s="2">
         <v>2.57534756843837E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:11">
+      <c r="A15" s="4"/>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15">
         <v>4.4146811357768399E-2</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>4.5611031255571803E-2</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>4.3229669491570602E-2</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>4.3472079389053203E-2</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>4.4622033664859603E-2</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>4.4498528803059302E-2</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>4.5363000000000001E-2</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>4.4646999999999999E-2</v>
       </c>
       <c r="K15" s="2">
         <v>6.3593481550149003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:11">
+      <c r="A16" s="4"/>
       <c r="B16">
         <v>6</v>
       </c>
       <c r="C16">
         <v>6.5964758188812395E-2</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>6.9778715774708205E-2</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>6.4975603528385606E-2</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>6.5446796942190799E-2</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>6.8507560518697094E-2</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>6.8109552790668604E-2</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <v>6.9421999999999998E-2</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <v>6.8485000000000004E-2</v>
       </c>
       <c r="K16" s="2">
         <v>0.109107070561071</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:11">
+      <c r="A17" s="4"/>
       <c r="B17">
         <v>12</v>
       </c>
       <c r="C17">
         <v>9.3917076070207897E-2</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>0.104407677871803</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>9.1448922070874794E-2</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>9.1892297559318006E-2</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>9.98683096124037E-2</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>9.9785294421684601E-2</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <v>0.100575</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <v>9.9899000000000002E-2</v>
       </c>
       <c r="K17" s="2">
         <v>0.16465193234269801</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:11">
+      <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B18">
@@ -987,132 +1017,132 @@
       <c r="C18">
         <v>1.5984916805093102E-2</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>1.59973150736036E-2</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>1.40266231709176E-2</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>1.4320286905408699E-2</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>1.5316379138700599E-2</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>1.4854012086154E-2</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>1.5192000000000001E-2</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <v>1.5035E-2</v>
       </c>
       <c r="K18" s="2">
         <v>1.7357786925723099E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+    <row r="19" spans="1:11">
+      <c r="A19" s="4"/>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19">
         <v>3.1090792233025299E-2</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>3.1377754120751403E-2</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>2.62475596675966E-2</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>2.64988946380647E-2</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>3.2721959928923197E-2</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>3.2180595451807702E-2</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="1">
         <v>3.1515000000000001E-2</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <v>3.2083E-2</v>
       </c>
       <c r="K19" s="2">
         <v>3.5336132212991797E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+    <row r="20" spans="1:11">
+      <c r="A20" s="4"/>
       <c r="B20">
         <v>6</v>
       </c>
       <c r="C20">
         <v>3.88136614390081E-2</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>3.9598172773147498E-2</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>2.8949125626382001E-2</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <v>2.7695513470018099E-2</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>4.0667377699239199E-2</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>3.9778905400030103E-2</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="1">
         <v>3.8993E-2</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <v>3.9757000000000001E-2</v>
       </c>
       <c r="K20" s="2">
         <v>4.7596214497792798E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+    <row r="21" spans="1:11">
+      <c r="A21" s="4"/>
       <c r="B21">
         <v>12</v>
       </c>
       <c r="C21">
         <v>4.7707293132415098E-2</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>4.96908602164172E-2</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>2.7313984923527199E-2</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <v>2.52662690303007E-2</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>4.9666201445814503E-2</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>4.8548492299196201E-2</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="1">
         <v>4.7939000000000002E-2</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="1">
         <v>4.8647000000000003E-2</v>
       </c>
       <c r="K21" s="2">
         <v>5.5582807114220298E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:11">
+      <c r="A22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B22">
@@ -1121,124 +1151,124 @@
       <c r="C22">
         <v>1.7758748555011701E-2</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>1.78357718429209E-2</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>1.8958289933914199E-2</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>1.8617040010223001E-2</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="3">
         <v>1.7093294226464498E-2</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>1.7587178964751999E-2</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="1">
         <v>1.7767999999999999E-2</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="1">
         <v>1.7464E-2</v>
       </c>
       <c r="K22" s="2">
         <v>2.0324784908419598E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+    <row r="23" spans="1:11">
+      <c r="A23" s="4"/>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23">
         <v>3.89252647151574E-2</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>3.9682627089486597E-2</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>4.46979860628888E-2</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>4.5947615190186197E-2</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="3">
         <v>3.8500886142572098E-2</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <v>3.8837976223551E-2</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="1">
         <v>3.9007E-2</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="1">
         <v>3.8765000000000001E-2</v>
       </c>
       <c r="K23" s="2">
         <v>4.66063344408175E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:11">
+      <c r="A24" s="4"/>
       <c r="B24">
         <v>6</v>
       </c>
       <c r="C24">
         <v>6.2944071349995898E-2</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>6.5691030868909706E-2</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>7.2855509471122806E-2</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>7.7018879327029902E-2</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="3">
         <v>6.4093028590923903E-2</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>6.4352702402172002E-2</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="1">
         <v>6.4449000000000006E-2</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="1">
         <v>6.4285999999999996E-2</v>
       </c>
       <c r="K24" s="2">
         <v>7.7624818485543895E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+    <row r="25" spans="1:11">
+      <c r="A25" s="4"/>
       <c r="B25">
         <v>12</v>
       </c>
       <c r="C25">
         <v>9.9058093819072601E-2</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="3">
         <v>0.107228345861678</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>0.110591474164524</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>0.116800471362579</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <v>0.108392023527886</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <v>0.10837660757234401</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="1">
         <v>0.108526</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="1">
         <v>0.108422</v>
       </c>
       <c r="K25" s="2">
@@ -1247,13 +1277,14 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>